--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/10/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.448</v>
+        <v>8.564499999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.0176</v>
+        <v>-22.0771</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.15439999999999</v>
+        <v>-22.05759999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>5.857300000000002</v>
+        <v>5.985100000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.4204</v>
+        <v>-12.50480000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.26629999999999</v>
+        <v>-12.3871</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.092199999999998</v>
+        <v>5.165699999999996</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.21850000000002</v>
+        <v>-22.1469</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.4163</v>
+        <v>-13.7677</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.356700000000004</v>
+        <v>4.438400000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.539100000000006</v>
+        <v>6.475100000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.337600000000001</v>
+        <v>6.252199999999997</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.69650000000001</v>
+        <v>-11.65260000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-22.08379999999999</v>
+        <v>-21.92189999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>5.2915</v>
+        <v>6.5291</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.73240000000001</v>
+        <v>-12.2422</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.67070000000001</v>
+        <v>-12.96070000000002</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0095</v>
+        <v>-10.9566</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.93649999999998</v>
+        <v>-22.0362</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.870500000000002</v>
+        <v>5.7761</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.6117</v>
+        <v>-11.3507</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47570000000001</v>
+        <v>-21.4663</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.383399999999996</v>
+        <v>9.397599999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.65929999999999</v>
+        <v>-20.7496</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.57809999999998</v>
+        <v>-19.97699999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>4.746600000000002</v>
+        <v>5.526200000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.473299999999999</v>
+        <v>5.325</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.28499999999999</v>
+        <v>-14.33079999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.5832</v>
+        <v>5.605500000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,10 +1762,10 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>6.149500000000004</v>
+        <v>6.1454</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.5148</v>
+        <v>-12.6208</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>5.518600000000004</v>
+        <v>4.943400000000009</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.569999999999999</v>
+        <v>5.513199999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.690999999999999</v>
+        <v>5.845999999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.3098</v>
+        <v>-12.56880000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
